--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -123,6 +123,7 @@
     <sheet name="2020-08-06" sheetId="114" state="visible" r:id="rId114"/>
     <sheet name="2020-08-07" sheetId="115" state="visible" r:id="rId115"/>
     <sheet name="2020-08-08" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet name="2020-08-09" sheetId="117" state="visible" r:id="rId117"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8718,28 +8719,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>感染患者（市外）の濃厚接触者</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
     </row>
@@ -8766,28 +8767,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>感染患者（市外）の濃厚接触者</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -8814,28 +8819,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>感染患者（市内）の濃厚接触者</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -8862,28 +8871,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>感染患者（市内）の濃厚接触者</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10121,18 +10134,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -10142,7 +10159,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10169,18 +10186,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -10190,7 +10211,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10217,18 +10238,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -10238,7 +10263,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10265,18 +10290,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -10286,7 +10315,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10313,18 +10342,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -10334,7 +10367,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10361,18 +10394,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>医療従事者</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -10382,7 +10419,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10409,28 +10446,32 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>感染患者(市外)の濃厚接触者</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10457,18 +10498,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -10478,7 +10523,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10553,18 +10598,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>飲食業</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -10574,7 +10623,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -10601,18 +10650,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -10622,7 +10675,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -12964,18 +13017,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市外</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -12985,7 +13042,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -27316,7 +27373,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -32440,28 +32497,32 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>福祉サービス事業所職員</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の障害児の福祉サービス事業所の職員行動歴調査中</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -35071,28 +35132,32 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市財政局に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -35263,28 +35328,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市立医療センター中央市民病院の受付スタッフ（PFI事業者）　行動歴調査中</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -35791,28 +35860,32 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>保育施設職員</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -37550,6 +37623,2837 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>福祉サービス
+事業所職員</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の職員</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>福祉サービス
+事業所職員</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の職員</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>福祉サービス
+事業所職員</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の職員</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>福祉サービス
+事業所職員</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の職員</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の利用者</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の利用者</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の利用者</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の利用者</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>市内の障害児の福祉サービス事業所の利用者</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>龍野</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>龍野健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>大阪市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>龍野</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>龍野健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>大阪市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>川西市</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>大学生</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No1528の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>パート</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No1633の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No1477の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>三田市</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No1524の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>三田市</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No1533の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>芦屋</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>芦屋市</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>小学生</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>神戸市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No1452の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>No1507の濃厚接触者　No1507とNo1615の同居人</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>アルバイト</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No1507の濃厚接触者　No1507とNo1616の同居人</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No1612の同居人　行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>No1613の同居人　行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>姫路</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>姫路市</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>市外患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>調査中</t>
         </is>
       </c>
@@ -37578,17 +40482,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -37626,17 +40530,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37674,12 +40578,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10歳未満</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -37722,12 +40626,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -37770,12 +40674,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -37818,17 +40722,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -37866,12 +40770,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -37914,7 +40818,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -37962,12 +40866,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10歳未満</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -38010,12 +40914,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -38058,12 +40962,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10歳未満</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -38106,12 +41010,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10歳未満</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -38154,17 +41058,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10歳未満</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -38202,12 +41106,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -38250,17 +41154,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -38290,342 +41194,6 @@
         </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>神戸</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>行動歴調査中</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>神戸</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>行動歴調査中</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>神戸</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>行動歴調査中</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>女性</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>神戸</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>行動歴調査中</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>神戸</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>行動歴調査中</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>神戸</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>行動歴調査中</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>女性</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>神戸</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>行動歴調査中</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
         <is>
           <t>調査中</t>
         </is>

--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -124,6 +124,7 @@
     <sheet name="2020-08-07" sheetId="115" state="visible" r:id="rId115"/>
     <sheet name="2020-08-08" sheetId="116" state="visible" r:id="rId116"/>
     <sheet name="2020-08-09" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet name="2020-08-10" sheetId="118" state="visible" r:id="rId118"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41204,6 +41205,1361 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>龍野</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>龍野健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>大阪市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>尼崎市で発生した患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>尼崎市で発生した患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>尼崎市で発生した患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -125,6 +125,7 @@
     <sheet name="2020-08-08" sheetId="116" state="visible" r:id="rId116"/>
     <sheet name="2020-08-09" sheetId="117" state="visible" r:id="rId117"/>
     <sheet name="2020-08-10" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet name="2020-08-11" sheetId="119" state="visible" r:id="rId119"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37975,28 +37976,32 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>環境局西事業所に勤務する職員　接触歴なしその他行動歴調査中</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -38364,28 +38369,32 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>介護施設職員</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -38652,28 +38661,32 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>環境局西事業所に勤務する職員　接触歴なしその他行動歴調査中</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -40407,7 +40420,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -40423,7 +40436,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の障害児の福祉サービス事業所で判明した患者の濃厚接触者</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -40599,28 +40612,32 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>園児</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園の園児　行動歴調査中</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -41762,7 +41779,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市外</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -41778,7 +41795,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の障害児の福祉サービス事業所で判明した患者の濃厚接触者</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -41810,7 +41827,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -41826,7 +41843,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の障害児の福祉サービス事業所で判明した患者の濃厚接触者</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -41858,7 +41875,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -41874,7 +41891,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の障害児の福祉サービス事業所で判明した患者の濃厚接触者</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -41906,12 +41923,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -41922,7 +41939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -41954,12 +41971,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -41970,7 +41987,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -42002,12 +42019,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -42018,7 +42035,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -42050,12 +42067,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -42066,7 +42083,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -42098,12 +42115,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -42114,7 +42131,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -42146,12 +42163,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -42162,7 +42179,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -42194,12 +42211,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -42210,7 +42227,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -42242,12 +42259,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -42258,7 +42275,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -42550,6 +42567,1565 @@
         </is>
       </c>
       <c r="J27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>朝来</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>朝来健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>尼崎市で発生した陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>大阪市</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No1660の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No1450の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>西宮市発表の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No1277の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>大阪府発表の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>医療関係者</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>調査中</t>
         </is>

--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -126,6 +126,7 @@
     <sheet name="2020-08-09" sheetId="117" state="visible" r:id="rId117"/>
     <sheet name="2020-08-10" sheetId="118" state="visible" r:id="rId118"/>
     <sheet name="2020-08-11" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet name="2020-08-12" sheetId="120" state="visible" r:id="rId120"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44759,6 +44760,1857 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>伊丹市</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>芦屋</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>芦屋市</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No1719の同居人　行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>アルバイト</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No1720の同居人　行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>伊丹市</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>姫路</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>姫路市</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -127,6 +127,7 @@
     <sheet name="2020-08-10" sheetId="118" state="visible" r:id="rId118"/>
     <sheet name="2020-08-11" sheetId="119" state="visible" r:id="rId119"/>
     <sheet name="2020-08-12" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet name="2020-08-13" sheetId="121" state="visible" r:id="rId121"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43483,28 +43484,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>環境局西事業所に勤務する職員No1550の濃厚接触者</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -43579,12 +43584,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>介護施設職員</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -43595,7 +43600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -43627,28 +43632,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>園児</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園の園児　No1602の濃厚接触者</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -43675,28 +43680,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>園児</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園の園児　No1602の濃厚接触者</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -43723,28 +43732,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>園児</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園の園児　No1602の濃厚接触者</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -43771,28 +43780,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>園児</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園の園児　No1602の濃厚接触者</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -43819,28 +43832,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市外</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>保育園職員</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園に勤務する職員　接触歴あり</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -45621,12 +45634,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>介護施設職員</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -45637,7 +45650,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -45669,12 +45682,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>介護施設職員</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -45685,7 +45698,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -45717,12 +45730,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市外</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>介護施設職員</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -45733,7 +45746,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -46245,12 +46258,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>介護施設職員</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -46261,7 +46274,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -46293,28 +46306,32 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -46341,6 +46358,1921 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>市内介護施設の入所者</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>市内介護施設の入所者</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>軽症</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>市内介護施設の入所者</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>市内介護施設の入所者</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>市内介護施設の入所者</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>軽症</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>市内介護施設の入所者</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>朝来</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>朝来健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>朝来</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>朝来健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>加東</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>加東健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>千葉県船橋市</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>伊丹市</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No1415の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>伊丹市</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No1469の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>伊丹市</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>尼崎市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>大阪市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>大阪市</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>大阪市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No1765の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>神戸市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>三田市</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>パート</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>宝塚健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No1586の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>飲食店勤務</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>西宮市外</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>西宮市外</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>アルバイト</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>No1751の同居人　行動歴調査中　通学先で感染者あり</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>No1752の同居人　行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>大阪市</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>医療従事者</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>姫路</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>姫路市</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>調査中</t>
         </is>
       </c>
@@ -46369,12 +48301,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -46417,12 +48349,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -46465,17 +48397,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -46513,17 +48445,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -46561,17 +48493,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10歳未満</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -46601,6 +48533,582 @@
         </is>
       </c>
       <c r="J37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>調査中</t>
         </is>

--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -128,6 +128,7 @@
     <sheet name="2020-08-11" sheetId="119" state="visible" r:id="rId119"/>
     <sheet name="2020-08-12" sheetId="120" state="visible" r:id="rId120"/>
     <sheet name="2020-08-13" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet name="2020-08-14" sheetId="122" state="visible" r:id="rId122"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -841,7 +842,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -19216,7 +19217,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -25577,7 +25578,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -41002,28 +41003,32 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>飲食店店員</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市内飲食店の店員　No1591の濃厚接触者</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -41146,28 +41151,32 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>飲食店店員</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市内飲食店の店員　行動歴調査中</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -41558,7 +41567,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -41610,7 +41619,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -41910,7 +41919,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -41958,7 +41967,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -42006,7 +42015,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -42102,7 +42111,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -42150,7 +42159,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -42453,28 +42462,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市内飲食店の利用者　No1591の濃厚接触者</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -43880,28 +43893,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の学童保育の利用者　行動歴調査中</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -45874,12 +45887,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>飲食店店員</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -45890,7 +45903,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市内飲食店の店員　No1591の濃厚接触者</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -45970,7 +45983,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -45986,7 +45999,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市内飲食店の利用者　No1591の濃厚接触者</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -46291,7 +46304,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -46395,7 +46408,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -46443,7 +46456,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -46491,7 +46504,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -46543,7 +46556,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -46591,7 +46604,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -48273,28 +48286,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市内の学童保育の指導員　行動歴調査中</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -48369,7 +48382,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -48385,7 +48398,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>神戸市内飲食店の利用者　No1591の濃厚接触者</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -48642,7 +48655,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -48786,7 +48799,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -48801,28 +48814,32 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の入所者</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -48849,28 +48866,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>会社員</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の職員の同居者</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -48897,28 +48914,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内介護施設の職員の同居者</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -49109,6 +49126,1769 @@
         </is>
       </c>
       <c r="J49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>加古川</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>加古川市</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>加古川</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>加古川健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>三田市</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>芦屋</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>芦屋市</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>大阪市</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>90歳以上</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>パート</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>大阪府発表の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No1619の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>姫路</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>姫路市</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>90歳以上</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>調査中</t>
         </is>
@@ -49193,7 +50973,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -51347,7 +53127,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -69659,7 +71439,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -73281,7 +75061,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -77555,7 +79335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -78250,7 +80030,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -80381,7 +82161,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -81324,7 +83104,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -82856,7 +84636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -86002,7 +87782,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -87188,7 +88968,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -93109,7 +94889,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90歳以上</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -129,6 +129,7 @@
     <sheet name="2020-08-12" sheetId="120" state="visible" r:id="rId120"/>
     <sheet name="2020-08-13" sheetId="121" state="visible" r:id="rId121"/>
     <sheet name="2020-08-14" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet name="2020-08-15" sheetId="123" state="visible" r:id="rId123"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14874,7 +14875,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>無職</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -14926,7 +14927,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>無職</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -37883,28 +37884,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>医療従事者</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内医療機関に勤務する医師感染患者（同居者）の濃厚接触者</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -43198,7 +43199,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>無職</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -45047,7 +45048,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>明石市内発生の患者の濃厚接触者</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -45095,7 +45096,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>明石市内発生の患者の濃厚接触者</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -45147,7 +45148,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>明石市内発生の患者の濃厚接触者</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -45340,7 +45341,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>無職</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -45355,7 +45356,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>No1719の同居人　行動歴調査中</t>
+          <t>尼崎市立中学校の生徒No1719の同居人　行動歴調査中</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -45791,28 +45792,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市立幼稚園に勤務する職員　行動歴調査中</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -45935,28 +45940,32 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>保育園職員</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園に勤務する職員　接触歴あり行動歴調査中</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -48766,28 +48775,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>園児</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内保育園の園児　感染が確認された園児の濃厚接触者</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -50245,28 +50254,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の医療機関に入院中の患者　接触歴あり</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -50437,28 +50450,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の医療機関に入院中の患者　接触歴あり</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
@@ -50533,88 +50550,1880 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>市内介護施設の委託事業者の職員　接触歴あり</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>神戸市</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>認定こども園
+職員</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>市内認定こども園に勤務する職員　行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>神戸市外</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>保育園職員</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>市内保育園に勤務する職員　No1708の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>加東</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>加東健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>パート</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>加東</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>加東健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>加古川</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>加古川市</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No1728の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>川西市</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No1728の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>大阪府で発生した陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No1809の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No1809の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>神戸市の陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>三田市</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No1765　No1766の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>宝塚健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>宝塚健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>宝塚健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>宝塚健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>陽性患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>芦屋</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>芦屋市</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>No1804の濃厚接触者　No1804　No1846の同居家族</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>No1804の濃厚接触者　No1804　No1847の同居家族</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No1798の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>勤務先で感染者あり　行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No1719　No1720の濃厚接触者　同居人　</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>なし</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>No1749の濃厚接触者　No1749　No1837の同居人</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>神戸</t>
+          <t>尼崎</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>尼崎市</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>No1749の濃厚接触者　No1749　No1838の同居人</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -50624,23 +52433,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>神戸</t>
+          <t>尼崎</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>尼崎市</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -50650,62 +52463,66 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>神戸</t>
+          <t>尼崎</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>尼崎市</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>調査中</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>勤務先で感染者あり　行動歴調査中</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状あり</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -50753,17 +52570,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -50801,12 +52618,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -50849,7 +52666,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -50889,6 +52706,918 @@
         </is>
       </c>
       <c r="J35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>調査中</t>
         </is>

--- a/daily_kanja.xlsx
+++ b/daily_kanja.xlsx
@@ -130,6 +130,7 @@
     <sheet name="2020-08-13" sheetId="121" state="visible" r:id="rId121"/>
     <sheet name="2020-08-14" sheetId="122" state="visible" r:id="rId122"/>
     <sheet name="2020-08-15" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet name="2020-08-16" sheetId="124" state="visible" r:id="rId124"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53070,28 +53071,28 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の医療機関に入院中の患者　接触歴あり</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -53118,28 +53119,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>無職</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内の医療機関に入院中の患者　接触歴あり</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -53166,28 +53167,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>会社員</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>行動歴調査中</t>
+          <t>市内医療機関の委託事業者の職員　接触歴あり</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>調査中</t>
+          <t>症状なし</t>
         </is>
       </c>
     </row>
@@ -53618,6 +53619,1937 @@
         </is>
       </c>
       <c r="J54" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>発表日</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年代</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>管轄</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居住地</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>発症日</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>渡航歴</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>備考欄</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ステータス</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>赤穂</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>赤穂健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中播磨</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中播磨健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>公務員</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>加古川</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>高砂市</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>伊丹健康福祉事務所管内</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>伊丹</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>伊丹市</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No1769の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>宝塚市</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>宝塚</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>三田市</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>主婦</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>芦屋</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>芦屋市</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>非公表</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>芦屋</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>芦屋市</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>大阪市の陽性患者と濃厚接触</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>地方公務員</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No1709の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>明石</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>明石市</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>自営業</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No1660の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>西宮市外</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10歳未満</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>No1799の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>No1799の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>No1799の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>無職</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No1799の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>西宮</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>西宮市</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>神戸市で発生した患者の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>症状なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>学生</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>No1796の濃厚接触者</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>尼崎</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>尼崎市</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>会社員</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>症状あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>神戸</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>調査中</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>行動歴調査中</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>調査中</t>
         </is>
